--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H2">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I2">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J2">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>169.4809004419999</v>
+        <v>1.626124677902222</v>
       </c>
       <c r="R2">
-        <v>1525.328103978</v>
+        <v>14.63512210112</v>
       </c>
       <c r="S2">
-        <v>0.0129879379468668</v>
+        <v>0.000338289935603952</v>
       </c>
       <c r="T2">
-        <v>0.01358922986745929</v>
+        <v>0.0003676329002364592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H3">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I3">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J3">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>651.5869366873332</v>
+        <v>8.166858909528889</v>
       </c>
       <c r="R3">
-        <v>5864.282430186</v>
+        <v>73.50173018576001</v>
       </c>
       <c r="S3">
-        <v>0.04993347733351377</v>
+        <v>0.001698987914109506</v>
       </c>
       <c r="T3">
-        <v>0.05224520661729692</v>
+        <v>0.001846356597087819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H4">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I4">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J4">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>1101.201319204666</v>
+        <v>16.9963364368</v>
       </c>
       <c r="R4">
-        <v>9910.811872841998</v>
+        <v>152.9670279312</v>
       </c>
       <c r="S4">
-        <v>0.08438906309524026</v>
+        <v>0.003535823320832659</v>
       </c>
       <c r="T4">
-        <v>0.08829595439955075</v>
+        <v>0.003842517454268106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H5">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I5">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J5">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>547.638569524</v>
+        <v>8.305028546800001</v>
       </c>
       <c r="R5">
-        <v>3285.831417144</v>
+        <v>49.83017128080001</v>
       </c>
       <c r="S5">
-        <v>0.04196753580927976</v>
+        <v>0.001727731957127883</v>
       </c>
       <c r="T5">
-        <v>0.02927364828382745</v>
+        <v>0.001251729248356465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H6">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I6">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J6">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>2542.361614817999</v>
+        <v>12.41081862348444</v>
       </c>
       <c r="R6">
-        <v>22881.254533362</v>
+        <v>111.69736761136</v>
       </c>
       <c r="S6">
-        <v>0.1948304192722437</v>
+        <v>0.002581877693626227</v>
       </c>
       <c r="T6">
-        <v>0.2038503235459864</v>
+        <v>0.002805827441685621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H7">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I7">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J7">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>17.15007692310033</v>
+        <v>129.7391823813333</v>
       </c>
       <c r="R7">
-        <v>154.350692307903</v>
+        <v>1167.652641432</v>
       </c>
       <c r="S7">
-        <v>0.001314272784014664</v>
+        <v>0.02699021806231371</v>
       </c>
       <c r="T7">
-        <v>0.001375118594159089</v>
+        <v>0.02933132529215847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H8">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I8">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J8">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
-        <v>65.93525321810122</v>
+        <v>651.5869366873332</v>
       </c>
       <c r="R8">
-        <v>593.417278962911</v>
+        <v>5864.282430186</v>
       </c>
       <c r="S8">
-        <v>0.00505285831662615</v>
+        <v>0.1355525230308252</v>
       </c>
       <c r="T8">
-        <v>0.005286786357714369</v>
+        <v>0.1473102269129687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H9">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I9">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J9">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>111.4325406752408</v>
+        <v>1356.04042098</v>
       </c>
       <c r="R9">
-        <v>1002.892866077167</v>
+        <v>12204.36378882</v>
       </c>
       <c r="S9">
-        <v>0.008539480966747802</v>
+        <v>0.2821031086506046</v>
       </c>
       <c r="T9">
-        <v>0.008934826319671784</v>
+        <v>0.3065724784681746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H10">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I10">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J10">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>55.41653111884067</v>
+        <v>662.6107013549999</v>
       </c>
       <c r="R10">
-        <v>332.499186713044</v>
+        <v>3975.66420813</v>
       </c>
       <c r="S10">
-        <v>0.004246770376632666</v>
+        <v>0.1378458457324701</v>
       </c>
       <c r="T10">
-        <v>0.002962253083256632</v>
+        <v>0.09986831357486696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H11">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I11">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J11">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>257.266141180243</v>
+        <v>990.1881957606664</v>
       </c>
       <c r="R11">
-        <v>2315.395270622187</v>
+        <v>8911.693761845998</v>
       </c>
       <c r="S11">
-        <v>0.01971524029412597</v>
+        <v>0.2059932461093926</v>
       </c>
       <c r="T11">
-        <v>0.02062798061902545</v>
+        <v>0.2238609149312039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H12">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I12">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J12">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>10.7532763776025</v>
+        <v>4.85896749680489</v>
       </c>
       <c r="R12">
-        <v>64.51965826561499</v>
+        <v>43.73070747124401</v>
       </c>
       <c r="S12">
-        <v>0.0008240626876159743</v>
+        <v>0.001010832578788684</v>
       </c>
       <c r="T12">
-        <v>0.0005748090950758541</v>
+        <v>0.001098511287160037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H13">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I13">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J13">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>41.34208867170916</v>
+        <v>24.40311160124856</v>
       </c>
       <c r="R13">
-        <v>248.052532030255</v>
+        <v>219.628004411237</v>
       </c>
       <c r="S13">
-        <v>0.003168194651206606</v>
+        <v>0.005076687639211152</v>
       </c>
       <c r="T13">
-        <v>0.002209913308601218</v>
+        <v>0.005517034957205437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H14">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I14">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J14">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>69.86936051145582</v>
+        <v>50.78617121641</v>
       </c>
       <c r="R14">
-        <v>419.2161630687349</v>
+        <v>457.0755409476901</v>
       </c>
       <c r="S14">
-        <v>0.005354343270205873</v>
+        <v>0.0105652726533455</v>
       </c>
       <c r="T14">
-        <v>0.003734819275432105</v>
+        <v>0.01148169489702366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H15">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I15">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J15">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>34.74674065200501</v>
+        <v>24.8159715655975</v>
       </c>
       <c r="R15">
-        <v>138.98696260802</v>
+        <v>148.895829393585</v>
       </c>
       <c r="S15">
-        <v>0.00266276913957367</v>
+        <v>0.005162576730405088</v>
       </c>
       <c r="T15">
-        <v>0.001238242302449307</v>
+        <v>0.003740249327259635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H16">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I16">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J16">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>161.3085428779725</v>
+        <v>37.08434237530078</v>
       </c>
       <c r="R16">
-        <v>967.851257267835</v>
+        <v>333.759081377707</v>
       </c>
       <c r="S16">
-        <v>0.0123616604569291</v>
+        <v>0.007714820372961431</v>
       </c>
       <c r="T16">
-        <v>0.008622638747834801</v>
+        <v>0.008383996950579098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H17">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I17">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J17">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>243.8476632881147</v>
+        <v>11.29140861242667</v>
       </c>
       <c r="R17">
-        <v>2194.628969593032</v>
+        <v>67.74845167456</v>
       </c>
       <c r="S17">
-        <v>0.01868693351885008</v>
+        <v>0.002349001859625801</v>
       </c>
       <c r="T17">
-        <v>0.01955206716758639</v>
+        <v>0.001701834778251836</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H18">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I18">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J18">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>937.4976857326872</v>
+        <v>56.70865357414667</v>
       </c>
       <c r="R18">
-        <v>8437.479171594185</v>
+        <v>340.25192144488</v>
       </c>
       <c r="S18">
-        <v>0.07184385813311346</v>
+        <v>0.0117973529499184</v>
       </c>
       <c r="T18">
-        <v>0.07516995436304316</v>
+        <v>0.008547096486624897</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H19">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I19">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J19">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>1584.398995978561</v>
+        <v>118.0183673676</v>
       </c>
       <c r="R19">
-        <v>14259.59096380705</v>
+        <v>708.1102042056</v>
       </c>
       <c r="S19">
-        <v>0.1214182588668147</v>
+        <v>0.02455188488275901</v>
       </c>
       <c r="T19">
-        <v>0.1270394605054194</v>
+        <v>0.01778766219102565</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H20">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I20">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J20">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>787.9376682363895</v>
+        <v>57.6680694501</v>
       </c>
       <c r="R20">
-        <v>4727.626009418337</v>
+        <v>230.6722778004</v>
       </c>
       <c r="S20">
-        <v>0.06038252991554842</v>
+        <v>0.01199694449373063</v>
       </c>
       <c r="T20">
-        <v>0.04211867361639571</v>
+        <v>0.005794466073188516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.69956</v>
+      </c>
+      <c r="H21">
+        <v>1.39912</v>
+      </c>
+      <c r="I21">
+        <v>0.06862310596362613</v>
+      </c>
+      <c r="J21">
+        <v>0.04681970858352177</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>123.1883796666667</v>
+      </c>
+      <c r="N21">
+        <v>369.565139</v>
+      </c>
+      <c r="O21">
+        <v>0.2612519722889696</v>
+      </c>
+      <c r="P21">
+        <v>0.2774184087724594</v>
+      </c>
+      <c r="Q21">
+        <v>86.17766287961332</v>
+      </c>
+      <c r="R21">
+        <v>517.06597727768</v>
+      </c>
+      <c r="S21">
+        <v>0.01792792177759227</v>
+      </c>
+      <c r="T21">
+        <v>0.01298864905443087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.164669</v>
+      </c>
+      <c r="I22">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J22">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.14072933333334</v>
+      </c>
+      <c r="N22">
+        <v>48.42218800000001</v>
+      </c>
+      <c r="O22">
+        <v>0.03423048004954622</v>
+      </c>
+      <c r="P22">
+        <v>0.03634868370049611</v>
+      </c>
+      <c r="Q22">
+        <v>17.02668858619689</v>
+      </c>
+      <c r="R22">
+        <v>153.240197275772</v>
+      </c>
+      <c r="S22">
+        <v>0.003542137613214079</v>
+      </c>
+      <c r="T22">
+        <v>0.003849379442689304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.164669</v>
+      </c>
+      <c r="I23">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J23">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.1719151703242873</v>
+      </c>
+      <c r="P23">
+        <v>0.1825533892714798</v>
+      </c>
+      <c r="Q23">
+        <v>85.51285474576456</v>
+      </c>
+      <c r="R23">
+        <v>769.615692711881</v>
+      </c>
+      <c r="S23">
+        <v>0.01778961879022306</v>
+      </c>
+      <c r="T23">
+        <v>0.01933267431759301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.164669</v>
+      </c>
+      <c r="I24">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J24">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>168.70371</v>
+      </c>
+      <c r="N24">
+        <v>506.11113</v>
+      </c>
+      <c r="O24">
+        <v>0.3577786889414888</v>
+      </c>
+      <c r="P24">
+        <v>0.3799182594076638</v>
+      </c>
+      <c r="Q24">
+        <v>177.96380040733</v>
+      </c>
+      <c r="R24">
+        <v>1601.67420366597</v>
+      </c>
+      <c r="S24">
+        <v>0.0370225994339471</v>
+      </c>
+      <c r="T24">
+        <v>0.04023390639717176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H21">
-        <v>34.695016</v>
-      </c>
-      <c r="I21">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J21">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>316.292811</v>
-      </c>
-      <c r="N21">
-        <v>948.878433</v>
-      </c>
-      <c r="O21">
-        <v>0.5072276531881493</v>
-      </c>
-      <c r="P21">
-        <v>0.5263990368430604</v>
-      </c>
-      <c r="Q21">
-        <v>3657.928046109992</v>
-      </c>
-      <c r="R21">
-        <v>32921.35241498993</v>
-      </c>
-      <c r="S21">
-        <v>0.2803203331648505</v>
-      </c>
-      <c r="T21">
-        <v>0.2932980939302138</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.164669</v>
+      </c>
+      <c r="I25">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J25">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>82.43477250000001</v>
+      </c>
+      <c r="N25">
+        <v>164.869545</v>
+      </c>
+      <c r="O25">
+        <v>0.1748236883957081</v>
+      </c>
+      <c r="P25">
+        <v>0.1237612588479007</v>
+      </c>
+      <c r="Q25">
+        <v>86.95958968426751</v>
+      </c>
+      <c r="R25">
+        <v>521.757538105605</v>
+      </c>
+      <c r="S25">
+        <v>0.01809058948197439</v>
+      </c>
+      <c r="T25">
+        <v>0.01310650062422911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.164669</v>
+      </c>
+      <c r="I26">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J26">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>123.1883796666667</v>
+      </c>
+      <c r="N26">
+        <v>369.565139</v>
+      </c>
+      <c r="O26">
+        <v>0.2612519722889696</v>
+      </c>
+      <c r="P26">
+        <v>0.2774184087724594</v>
+      </c>
+      <c r="Q26">
+        <v>129.9501487637768</v>
+      </c>
+      <c r="R26">
+        <v>1169.551338873991</v>
+      </c>
+      <c r="S26">
+        <v>0.02703410633539709</v>
+      </c>
+      <c r="T26">
+        <v>0.02937902039455993</v>
       </c>
     </row>
   </sheetData>
